--- a/Translation Script/Map102.xlsx
+++ b/Translation Script/Map102.xlsx
@@ -460,8 +460,8 @@
   </si>
   <si>
     <t>\n&lt;Meria&gt;I guess there's no way around this but...
-Try not to think too much about doing lewd things with those succubi, OK?
-They're demons after all right? Monsters!</t>
+Try not to think too much about doing lewd things with those
+succubi, OK? They're demons after all right? Monsters!</t>
   </si>
   <si>
     <t>\C[3]戦わずに帰る</t>
